--- a/PhoenixCI/Excel_Template/30221.xlsx
+++ b/PhoenixCI/Excel_Template/30221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6172C921-5BC0-4EA6-BEC3-13CAF714317C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B46EBF-AF4A-4E8D-A39F-A0878A38FB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18180" windowHeight="11475"/>
   </bookViews>
   <sheets>
     <sheet name="附件5" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -414,7 +413,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -489,7 +488,7 @@
         <xdr:cNvPr id="2" name="圓角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3F561-5A6B-4A82-9B2C-9B6EC32899A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84C564F-FAC9-4D9E-8DFE-7129EF8D51F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/PhoenixCI/Excel_Template/30221.xlsx
+++ b/PhoenixCI/Excel_Template/30221.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18B46EBF-AF4A-4E8D-A39F-A0878A38FB73}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6172C921-5BC0-4EA6-BEC3-13CAF714317C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18180" windowHeight="11475"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="附件5" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -413,7 +414,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -488,7 +489,7 @@
         <xdr:cNvPr id="2" name="圓角矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84C564F-FAC9-4D9E-8DFE-7129EF8D51F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD3F561-5A6B-4A82-9B2C-9B6EC32899A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
